--- a/endnote/OAI_references.xlsx
+++ b/endnote/OAI_references.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9DB86-9AAB-4B5A-BBB7-7945D0F98596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7E481-52E5-4F26-ABC1-E73E2E5386B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,13 +303,318 @@
   <si>
     <t>对KOA的入门介绍, 涉及影响因素, 诊断, 以及临床表现等.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metabolic syndrome-associated osteoarthritis</t>
+  </si>
+  <si>
+    <t>Curr Opin Rheumatol</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PURPOSE OF REVIEW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Interest in the metabolic syndrome-associated osteoarthritis phenotype is increasing. Here, we summarize recently published significant findings. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RECENT FINDINGS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Meta-analyses confirmed an association between type 2 diabetes and osteoarthritis and between cardiovascular diseases and osteoarthritis. Recent advances in the study of metabolic syndrome-associated osteoarthritis have focused on a better understanding of the role of metabolic diseases in inducing or aggravating joint damage. In-vivo models of obesity, diabetes, or dyslipidemia have helped to better decipher this association. They give emerging evidence that, beyond the role of common pathogenic mechanisms for metabolic diseases and osteoarthritis (i.e., low-grade inflammation and oxidative stress), metabolic diseases have a direct systemic effect on joints. In addition to the impact of weight, obesity-associated inflammation is associated with osteoarthritis severity and may modulate osteoarthritis progression in mouse models. As well, osteoarthritis synovium from type 2 diabetic patients shows insulin-resistant features, which may participate in joint catabolism. Finally, exciting data are emerging on the association of gut microbiota and circadian rhythm and metabolic syndrome-associated osteoarthritis. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUMMARY:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The systemic role of metabolic syndrome in osteoarthritis pathophysiology is now better understood, but new avenues of research are being pursued to better decipher the metabolic syndrome-associated osteoarthritis phenotype.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2型糖尿病与KOA, 心血管与KOA之间存在关联关系(荟萃分析)
+代谢疾病在诱导和加重关节损伤中的作用.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine-learning-based patient-specific prediction models for knee osteoarthritis</t>
+  </si>
+  <si>
+    <t>Nat Rev Rheumatol</t>
+  </si>
+  <si>
+    <t>Osteoarthritis (OA) is an extremely common musculoskeletal disease. However, current guidelines are not well suited for diagnosing patients in the early stages of disease and do not discriminate patients for whom the disease might progress rapidly. The most important hurdle in OA management is identifying and classifying patients who will benefit most from treatment. Further efforts are needed in patient subgrouping and developing prediction models. Conventional statistical modelling approaches exist; however, these models are limited in the amount of information they can adequately process. Comprehensive patient-specific prediction models need to be developed. Approaches such as data mining and machine learning should aid in the development of such models. Although a challenging task, technology is now available that should enable subgrouping of patients with OA and lead to improved clinical decision-making and precision medicine.</t>
+  </si>
+  <si>
+    <t>系统介绍机器学习技术如何在KOA疾病预测中进行应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper explored the hidden biomedical information from knee magnetic resonance (MR) images for osteoarthritis (OA) prediction. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Method:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> We have computed the cartilage damage index (CDI) information from 36 informative locations on tibiofemoral cartilage compartment from 3-D MR imaging and used principal component analysis (PCA) analysis to process the feature set. Four machine learning methods (artificial neural network (ANN), support vector machine, random forest, and naïve Bayes) were employed to predict the progression of OA, which was measured by the change of Kellgren and Lawrence (KL) grade, Joint Space Narrowing on Medial compartment (JSM) grade, and Joint Space Narrowing on Lateral compartment (JSL) grade. To examine the different effects of medial and lateral informative locations, we have divided the 36-D feature set into a 18-D medial feature set and a 18-D lateral feature set and run the experiment on four classifiers separately. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experiment results showed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that the medial feature set generated better prediction performance than the lateral feature set, while using the total 36-D feature set generated the best. PCA analysis is helpful in feature space reduction and performance improvement. For KL grade prediction, the best performance was achieved by ANN with AUC = 0.761 and F-measure = 0.714. For JSM grade prediction, the best performance was achieved by random forest with AUC = 0.785 and F-measure = 0.743, while for JSL grade prediction, the best performance was achieved by ANN with AUC = 0.695 and F-measure = 0.796. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>As experiment results showing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> that the informative locations on medial compartment provide more distinguishing features than informative locations on the lateral compartment, it could be considered to select more points from the medial compartment while reducing the number of points from the lateral compartment to improve clinical CDI design.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Novel Method to Predict Knee Osteoarthritis Progression on MRI Using Machine Learning Methods</t>
+  </si>
+  <si>
+    <t>IEEE Trans Nanobioscience</t>
+  </si>
+  <si>
+    <t>Parallel Distributed Processing: Explorations in the Microstructure of Cognition: Foundations</t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>ANN提出的始祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support-vector networks</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Thesupport-vector network is a new learning machine for two-group classification problems. The machine conceptually implements the following idea: input vectors are non-linearly mapped to a very high-dimension feature space. In this feature space a linear decision surface is constructed. Special properties of the decision surface ensures high generalization ability of the learning machine. The idea behind the support-vector network was previously implemented for the restricted case where the training data can be separated without errors. We here extend this result to non-separable training data.</t>
+  </si>
+  <si>
+    <t>SVM提出的鼻祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idiot's Bayes: Not So Stupid after All?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Statistical Review </t>
+  </si>
+  <si>
+    <t>Folklore has it that a very simple supervised classification rule, based on the typically false assumption that the predictor variables are independent, can be highly effective, and often more effective than sophisticated rules. We examine the evidence for this, both empirical, as observed in real data applications, and theoretical, summarising explanations for why this simple rule might be effective. /// La tradition veut qu'une r&amp;#xe8;gle tr&amp;#xe8;s simple assumant l'independance des variables pr&amp;#xe9;dictives, une hypoth&amp;#xe8;se fausse dans la plupart des cas, peut &amp;#xea;tre tr&amp;#xe8;s efficace, souvent m&amp;#xea;me plus efficace qu'une m&amp;#xe9;thode plus sophistiqu&amp;#xe9;e en ce qui concerne l'attribution de classes a un groupe d'objects. A ce sujet, nous examinons les preuves empiriques, observ&amp;#xe9;es sur des donn&amp;#xe9;es r&amp;#xe9;elles, et les preuves th&amp;#xe9;oriques, c'est-a-dire les raisons pour lesquelles cette simple r&amp;#xe8;gle pourrait faciliter le processus de tri.</t>
+  </si>
+  <si>
+    <t>贝叶斯算法鼻祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A machine learning approach for the identification of new biomarkers for knee osteoarthritis development in overweight and obese women</t>
+  </si>
+  <si>
+    <t>Osteoarthritis Cartilage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OBJECTIVE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Knee osteoarthritis (OA) is among the higher contributors to global disability. Despite its high prevalence, currently, there is no cure for this disease. Furthermore, the available diagnostic approaches have large precision errors and low sensitivity. Therefore, there is a need for new biomarkers to correctly identify early knee OA. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">METHOD: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We have created an analytics pipeline based on machine learning to identify small models (having few variables) that predict the 30-months incidence of knee OA (using multiple clinical and structural OA outcome measures) in overweight middle-aged women without knee OA at baseline. The data included clinical variables, food and pain questionnaires, biochemical markers (BM) and imaging-based information. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESULTS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All the models showed high performance (AUC &gt; 0.7) while using only a few variables. We identified both the importance of each variable within the models as well its direction. Finally, we compared the performance of two models with the state-of-the-art approaches available in the literature. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONCLUSIONS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> We showed the potential of applying machine learning to generate predictive models for the knee OA incidence. Imaging-based information were found particularly important in the proposed models. Furthermore, our analysis confirmed the relevance of known BM for knee OA. Overall, we propose five highly predictive small models that can be possibly adopted for an early prediction of knee OA.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注于关键变量（包括生物标志物）的识别及其在KOA预测模型中的结合。他们使用了5中事件KOA的结果测量方法，包括内侧关节间歇狭窄（JSN），但该研究仅限于超重和配胖的女性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +646,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,12 +688,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,6 +889,182 @@
         <a:xfrm>
           <a:off x="12477750" y="7715251"/>
           <a:ext cx="3697571" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2221255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C7D408-A7F2-427D-ACFD-9F856763B633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12477750" y="15168563"/>
+          <a:ext cx="1857375" cy="2221255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1347107</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>951927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA7C888-F79D-4FFD-90B8-0E7B8CCD3679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12477750" y="23309036"/>
+          <a:ext cx="1347107" cy="951927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2819381</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1374322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BB4398-A470-402B-BEA2-35EEAB3BDD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12341679" y="24397607"/>
+          <a:ext cx="2819381" cy="1374322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4100683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2738437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C097FB22-13E7-459C-93A6-05AC35DA5B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12358689" y="26241375"/>
+          <a:ext cx="4100682" cy="2738437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,17 +1339,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="35.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="89.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="57" style="1" customWidth="1"/>
@@ -849,7 +1357,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -950,6 +1458,134 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="268.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1987</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1995</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="251.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
